--- a/doc/App接口定义.xlsx
+++ b/doc/App接口定义.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" tabRatio="789" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="目录" sheetId="1" r:id="rId4"/>
-    <sheet name="获取推荐课程列表" sheetId="2" r:id="rId5"/>
-    <sheet name="获取热点课程列表" sheetId="3" r:id="rId6"/>
-    <sheet name="获取课程音频列表" sheetId="4" r:id="rId7"/>
-    <sheet name="获取课程种类列表" sheetId="5" r:id="rId8"/>
-    <sheet name="获取分类课程列表" sheetId="6" r:id="rId9"/>
-    <sheet name="搜索课程分类列表" sheetId="7" r:id="rId10"/>
-    <sheet name="获取热门搜索词列表" sheetId="8" r:id="rId11"/>
-    <sheet name="App发送短信验证码接口" sheetId="9" r:id="rId12"/>
-    <sheet name="短信验证码验证" sheetId="10" r:id="rId13"/>
-    <sheet name="添加设备" sheetId="11" r:id="rId14"/>
-    <sheet name="获取我的设备" sheetId="12" r:id="rId15"/>
-    <sheet name="添加定时播放任务" sheetId="13" r:id="rId16"/>
-    <sheet name="添加定时任务" sheetId="14" r:id="rId17"/>
+    <sheet name="目录" sheetId="1" r:id="rId1"/>
+    <sheet name="获取推荐课程列表" sheetId="2" r:id="rId2"/>
+    <sheet name="获取热点课程列表" sheetId="3" r:id="rId3"/>
+    <sheet name="获取课程音频列表" sheetId="4" r:id="rId4"/>
+    <sheet name="获取课程种类列表" sheetId="5" r:id="rId5"/>
+    <sheet name="获取分类课程列表" sheetId="6" r:id="rId6"/>
+    <sheet name="搜索课程分类列表" sheetId="7" r:id="rId7"/>
+    <sheet name="获取热门搜索词列表" sheetId="8" r:id="rId8"/>
+    <sheet name="发送短信验证码接口" sheetId="9" r:id="rId9"/>
+    <sheet name="短信验证码验证" sheetId="10" r:id="rId10"/>
+    <sheet name="添加设备" sheetId="11" r:id="rId11"/>
+    <sheet name="获取我的设备" sheetId="12" r:id="rId12"/>
+    <sheet name="添加定时播放任务" sheetId="13" r:id="rId13"/>
+    <sheet name="获取设备定时播放列表" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId15"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="175">
   <si>
     <t>接口名称</t>
   </si>
@@ -80,16 +84,6 @@
     <t>{base_url}/wx/cancelOrder?openId=</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>{base_url}/app/recommendList.do</t>
-    </r>
-  </si>
-  <si>
     <t>请求方式</t>
   </si>
   <si>
@@ -104,6 +98,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>page</t>
     </r>
@@ -153,6 +148,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>课程ID</t>
     </r>
@@ -196,6 +192,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>图标URL</t>
     </r>
@@ -222,9 +219,6 @@
     <t>请求示例</t>
   </si>
   <si>
-    <t>{base_url}/app/recommendList.do?page=1&amp;pageSize=10&amp;userId=xxxxxxxxx</t>
-  </si>
-  <si>
     <t>返回示例</t>
   </si>
   <si>
@@ -233,6 +227,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">{
 </t>
@@ -242,6 +237,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "errCode":0,
 </t>
@@ -251,6 +247,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "cnt":1,
 </t>
@@ -260,6 +257,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "list":
 </t>
@@ -269,6 +267,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">[{
 </t>
@@ -278,6 +277,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"id":"xxxxx",
 </t>
@@ -287,6 +287,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"name":"xxxxx",
 </t>
@@ -296,6 +297,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"create_time":"xxxxx",
 </t>
@@ -305,6 +307,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"status":"xxxxx",
 </t>
@@ -314,6 +317,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"describe":"xxxxx",
 </t>
@@ -323,6 +327,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"times":"xxxxx",
 </t>
@@ -332,6 +337,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"icon":"xxxxx",
 </t>
@@ -341,6 +347,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"age":"xxxxx",
 </t>
@@ -350,6 +357,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"shares":"xxxxx",
 </t>
@@ -359,6 +367,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"collect":"xxxxx"
 </t>
@@ -368,6 +377,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">}]
 </t>
@@ -377,37 +387,15 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>{base_url}/app/hotList.do</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>{base_url}/app/hotList.do?page=1&amp;pageSize=10&amp;userId=xxxxxxxxx</t>
-    </r>
-  </si>
-  <si>
     <t>地址</t>
   </si>
   <si>
-    <t>{base_url}/app/audioList.do</t>
-  </si>
-  <si>
     <t>courseId</t>
   </si>
   <si>
@@ -431,6 +419,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>id</t>
     </r>
@@ -441,6 +430,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>name</t>
     </r>
@@ -466,6 +456,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">{
 </t>
@@ -475,6 +466,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "errCode":0,
 </t>
@@ -484,6 +476,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "cnt":1,
 </t>
@@ -493,6 +486,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"durationSum":"xxxxxx"
 </t>
@@ -502,6 +496,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "list":
 </t>
@@ -511,6 +506,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">[{
 </t>
@@ -520,6 +516,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"id":"xxxxxx",
 </t>
@@ -529,6 +526,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"name":"xxxxxx",
 </t>
@@ -538,6 +536,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"duration":"xxxxx",
 </t>
@@ -547,6 +546,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"path":"xxxxxx"
 </t>
@@ -556,6 +556,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">}]
 </t>
@@ -565,14 +566,12 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
   </si>
   <si>
-    <t>{base_url}/app/cataList.do</t>
-  </si>
-  <si>
     <t>课程分类数量</t>
   </si>
   <si>
@@ -590,6 +589,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">{
 </t>
@@ -599,6 +599,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "errCode":0,
 </t>
@@ -608,6 +609,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "cnt":1,
 </t>
@@ -617,6 +619,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "list":
 </t>
@@ -626,6 +629,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">[{
 </t>
@@ -635,6 +639,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"id":"xxxxxx",
 </t>
@@ -644,6 +649,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"name":"xxxxxx",
 </t>
@@ -653,6 +659,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"path":"xxxxxx"
 </t>
@@ -662,6 +669,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">}]
 </t>
@@ -671,47 +679,18 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>{base_url}/app/courseList.do</t>
-    </r>
-  </si>
-  <si>
     <t>cataId</t>
   </si>
   <si>
     <t>分类ID（必填）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>{base_url}/app/newestList.do?page=1&amp;pageSize=10&amp;cataId=xxxxxxxxx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>{base_url}/app/search.do</t>
-    </r>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -726,16 +705,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-      </rPr>
-      <t>{base_url}/app/search.do?page=1&amp;pageSize=10&amp;key=xxxxxxxxx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">{
 </t>
@@ -745,6 +715,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "errCode":0,
 </t>
@@ -754,6 +725,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "cnt":1,
 </t>
@@ -763,6 +735,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "list":
 </t>
@@ -772,6 +745,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">[{
 </t>
@@ -781,6 +755,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"id":"xxxxx",
 </t>
@@ -790,6 +765,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">“name”:”xxxxx”,
 </t>
@@ -799,6 +775,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">”icon":"xxxxxx"
 </t>
@@ -808,6 +785,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">}]
 </t>
@@ -817,21 +795,12 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>{base_url}/app/hotKey.do</t>
-    </r>
-  </si>
-  <si>
     <t>热门词数量</t>
   </si>
   <si>
@@ -843,6 +812,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>hotKey</t>
     </r>
@@ -851,82 +821,6 @@
     <t>热门词</t>
   </si>
   <si>
-    <t>{base_url}/app/hotKey.do</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve"> "errCode":0,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve"> "cnt":1,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve"> "list":
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">[{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">"hotKey":"xxxxx",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">}]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
     <t>接口描述</t>
   </si>
   <si>
@@ -943,14 +837,6 @@
   </si>
   <si>
     <t>操作结果代码 返回结果：0为成功， 1失败</t>
-  </si>
-  <si>
-    <t>{base_url}/app/hotKey.do?mobileNo=xxxxxxx</t>
-  </si>
-  <si>
-    <t>{
- errCode:0
-}</t>
   </si>
   <si>
     <t>{base_url}/app/valiMobile</t>
@@ -1042,6 +928,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>设备</t>
     </r>
@@ -1050,6 +937,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -1084,6 +972,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">{
 </t>
@@ -1093,6 +982,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "errCode":0,
 </t>
@@ -1102,6 +992,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "cnt":1,
 </t>
@@ -1111,6 +1002,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> "list":
 </t>
@@ -1120,6 +1012,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">[{
 </t>
@@ -1129,6 +1022,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">"id":"xxxxx",
 </t>
@@ -1138,6 +1032,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1146,6 +1041,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>name</t>
     </r>
@@ -1154,6 +1050,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1162,6 +1059,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:”xxxxx”,
 </t>
@@ -1171,6 +1069,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1179,6 +1078,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>status</t>
     </r>
@@ -1187,6 +1087,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1195,6 +1096,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1203,6 +1105,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1211,6 +1114,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">",
 </t>
@@ -1220,6 +1124,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1228,6 +1133,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>city</t>
     </r>
@@ -1236,6 +1142,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>"</t>
     </r>
@@ -1244,6 +1151,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1252,6 +1160,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>""</t>
     </r>
@@ -1260,6 +1169,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,
 </t>
@@ -1269,6 +1179,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">……..
 </t>
@@ -1278,6 +1189,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">}]
 </t>
@@ -1287,6 +1199,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>}</t>
     </r>
@@ -1295,40 +1208,584 @@
     <t>{base_url}/app/addPlayTask</t>
   </si>
   <si>
+    <r>
+      <t>设备I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weekDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期几(用","号隔开，1--星期一；2--星期二；……7--星期日）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>egin</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>开始播放时间（h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>h:MM:ss,如06:55:33)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>musics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要播放的课程文件ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ errCode:0
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>deviceId</t>
-  </si>
-  <si>
-    <t>终端ID，必须</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务标签</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+“userToken”:”xxxxxxx”,
+“deviceId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>”:”xxxxxxxx”,
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xxxxxxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>weekDay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>”:”xxxxx”,
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>begin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>”:”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xx:xx:xx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>”,
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>musics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>”:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[
+     {"id":"xxxxx"},
+     {"id":"xxxxx"},
+     {"id":"xxxxx"},
+     {"id":"xxxxx"},
+     {"id":"xxxxx"}]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要播放的课程文件列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频文件ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频文件名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.tag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.weekDay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.begin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.musics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.musics.id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.musics.name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.musics.url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{base_url}/app/getPlayTaskList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{base_url}/app/hotKey?mobileNo=xxxxxxx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{base_url}/app/recommendList</t>
+  </si>
+  <si>
+    <t>{base_url}/app/recommendList?page=1&amp;pageSize=10&amp;userId=xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>{base_url}/app/hotList</t>
+  </si>
+  <si>
+    <t>{base_url}/app/hotList?page=1&amp;pageSize=10&amp;userId=xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>{base_url}/app/audioList</t>
+  </si>
+  <si>
+    <t>{base_url}/app/cataList</t>
+  </si>
+  <si>
+    <t>{base_url}/app/courseList</t>
+  </si>
+  <si>
+    <t>{base_url}/app/newestList?page=1&amp;pageSize=10&amp;cataId=xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>{base_url}/app/search</t>
+  </si>
+  <si>
+    <t>{base_url}/app/search?page=1&amp;pageSize=10&amp;key=xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>{base_url}/app/hotKey</t>
+  </si>
+  <si>
+    <t>{base_url}/app/getPlayTaskList?userToken=&amp;deviceId=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> "errCode":0,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> "cnt":1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> "list":
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"hotKey":"xxxxx",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">}]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "errCode": 0,
+    "cnt": 1,
+    "list": [
+        {
+            "id": "xxxxx",
+            "tag": "xxxxx",
+            "weekDay": "12345",
+            "begin": "xxxxx",
+            "musics": [
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                },
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                },
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                }
+            ]
+        },
+        {
+            "id": "xxxxx",
+            "tag": "xxxxx",
+            "weekDay": "12345",
+            "begin": "xxxxx",
+            "musics": [
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                },
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                },
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                }
+            ]
+        },
+        {
+            "id": "xxxxx",
+            "tag": "xxxxx",
+            "weekDay": "12345",
+            "begin": "xxxxx",
+            "musics": [
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                },
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                },
+                {
+                    "id": "xxxxx",
+                    "name": "xxxxxx",
+                    "url": "xxxxxxx"
+                }
+            ]
+        }
+    ]
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1698,272 +2155,269 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="88">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -2089,7 +2543,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2098,7 +2552,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2107,7 +2561,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2181,7 +2635,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2189,7 +2643,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2208,7 +2662,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2238,7 +2692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2264,7 +2718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2290,7 +2744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2316,7 +2770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2342,7 +2796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2368,7 +2822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2394,7 +2848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2420,7 +2874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2446,7 +2900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2459,9 +2913,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2476,7 +2936,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2484,7 +2944,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2503,7 +2963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2529,7 +2989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2555,7 +3015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2581,7 +3041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2607,7 +3067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2633,7 +3093,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2659,7 +3119,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2685,7 +3145,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2711,7 +3171,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2737,7 +3197,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2750,9 +3210,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2766,7 +3232,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2785,7 +3251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2815,7 +3281,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2841,7 +3307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2867,7 +3333,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2893,7 +3359,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2919,7 +3385,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2945,7 +3411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2971,7 +3437,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2997,7 +3463,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3023,7 +3489,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3036,209 +3502,216 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1562" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5781" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" t="s" s="6">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s" s="9">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="15.95" customHeight="1">
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="15.95" customHeight="1">
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="15.95" customHeight="1">
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="15.95" customHeight="1">
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="15.95" customHeight="1">
+    <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="15.95" customHeight="1">
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="15.95" customHeight="1">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="15.95" customHeight="1">
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="15.95" customHeight="1">
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" ht="15.95" customHeight="1">
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3246,8 +3719,9 @@
       <c r="E21" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3255,155 +3729,154 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="60" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="60" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="60" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="60" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="60" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="60" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="48" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="48" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="48" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
-        <v>108</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="13">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s" s="14">
-        <v>110</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="16"/>
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="45">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="32">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s" s="32">
-        <v>111</v>
-      </c>
-      <c r="D4" s="16"/>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" t="s" s="32">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s" s="32">
-        <v>113</v>
-      </c>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="66"/>
+      <c r="B5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" t="s" s="45">
+    <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s" s="35">
-        <v>114</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="C7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" t="s" s="32">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s" s="35">
-        <v>116</v>
-      </c>
-      <c r="D8" s="16"/>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="71"/>
+      <c r="B8" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="16"/>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" t="s" s="13">
+    <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s" s="38">
-        <v>117</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s" s="64">
-        <v>118</v>
-      </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3411,224 +3884,217 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="66" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="66" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="66" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="66" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="66" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="66" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="49" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="49" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="49" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
-        <v>119</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="13">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78"/>
+      <c r="B5" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="78"/>
+      <c r="B6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="78"/>
+      <c r="B7" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s" s="14">
-        <v>120</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="45">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="32">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s" s="32">
-        <v>116</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" t="s" s="32">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s" s="32">
-        <v>122</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" t="s" s="32">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s" s="32">
-        <v>123</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" t="s" s="32">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s" s="32">
-        <v>125</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="C7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" t="s" s="32">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s" s="32">
-        <v>127</v>
-      </c>
-      <c r="D8" s="16"/>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="78"/>
+      <c r="B8" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="16"/>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="78"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="16"/>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="66"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="16"/>
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="18.95" customHeight="1">
-      <c r="A12" t="s" s="45">
+    <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s" s="35">
-        <v>128</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="C12" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="16"/>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="71"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="16"/>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="66"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="15.95" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="16"/>
+    <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="99.2" customHeight="1">
-      <c r="A17" t="s" s="13">
+    <row r="17" spans="1:5" ht="99.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s" s="38">
-        <v>129</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="71.25" customHeight="1">
-      <c r="A18" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="15.95" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="16"/>
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="50"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="15.95" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="16"/>
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="51"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" ht="15.95" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="16"/>
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="51"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" ht="15.95" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="16"/>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="51"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B1:C1"/>
@@ -3637,9 +4103,15 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3647,269 +4119,270 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="72" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="72" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="72" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="72" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="72" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="72" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="52" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="52" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="52" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
-        <v>130</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="13">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s" s="14">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="71"/>
+      <c r="B7" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="71"/>
+      <c r="B8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="79"/>
+      <c r="B9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="80"/>
+      <c r="B10" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="80"/>
+      <c r="B11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="80"/>
+      <c r="B12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="80"/>
+      <c r="B13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="32">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s" s="32">
-        <v>116</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" t="s" s="45">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="35">
-        <v>131</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s" s="32">
-        <v>132</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" t="s" s="32">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s" s="35">
-        <v>133</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" t="s" s="32">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s" s="35">
-        <v>134</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" t="s" s="32">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s" s="32">
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="80"/>
+      <c r="B14" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" t="s" s="32">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s" s="32">
-        <v>38</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" t="s" s="32">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s" s="32">
-        <v>135</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" t="s" s="32">
-        <v>136</v>
-      </c>
-      <c r="C13" t="s" s="32">
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="80"/>
+      <c r="B15" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="80"/>
+      <c r="B16" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" t="s" s="32">
+      <c r="C16" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C14" t="s" s="32">
-        <v>137</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" t="s" s="32">
-        <v>138</v>
-      </c>
-      <c r="C15" t="s" s="32">
-        <v>139</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" t="s" s="32">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s" s="32">
-        <v>141</v>
-      </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="13">
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s" s="74">
-        <v>142</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="159" customHeight="1">
-      <c r="A18" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s" s="35">
-        <v>143</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="16"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3917,235 +4390,500 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="75" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="75" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="75" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="75" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="75" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="75" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="53" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="53" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="53" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
-        <v>144</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="13">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s" s="14">
-        <v>120</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="16"/>
+    <row r="2" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
+    <row r="3" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="45">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="32">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s" s="32">
-        <v>116</v>
-      </c>
-      <c r="D4" s="16"/>
+    <row r="4" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" t="s" s="32">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s" s="32">
-        <v>122</v>
-      </c>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78"/>
+      <c r="B5" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" t="s" s="32">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s" s="32">
-        <v>123</v>
-      </c>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="78"/>
+      <c r="B6" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" t="s" s="32">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s" s="32">
-        <v>125</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="54"/>
+      <c r="BF6" s="54"/>
+      <c r="BG6" s="54"/>
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="54"/>
+      <c r="BK6" s="54"/>
+      <c r="BL6" s="54"/>
+      <c r="BM6" s="54"/>
+      <c r="BN6" s="54"/>
+      <c r="BO6" s="54"/>
+      <c r="BP6" s="54"/>
+      <c r="BQ6" s="54"/>
+      <c r="BR6" s="54"/>
+      <c r="BS6" s="54"/>
+      <c r="BT6" s="54"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="54"/>
+      <c r="BW6" s="54"/>
+      <c r="BX6" s="54"/>
+      <c r="BY6" s="54"/>
+      <c r="BZ6" s="54"/>
+      <c r="CA6" s="54"/>
+      <c r="CB6" s="54"/>
+      <c r="CC6" s="54"/>
+      <c r="CD6" s="54"/>
+      <c r="CE6" s="54"/>
+      <c r="CF6" s="54"/>
+      <c r="CG6" s="54"/>
+      <c r="CH6" s="54"/>
+      <c r="CI6" s="54"/>
+      <c r="CJ6" s="54"/>
+      <c r="CK6" s="54"/>
+      <c r="CL6" s="54"/>
+      <c r="CM6" s="54"/>
+      <c r="CN6" s="54"/>
+      <c r="CO6" s="54"/>
+      <c r="CP6" s="54"/>
+      <c r="CQ6" s="54"/>
+      <c r="CR6" s="54"/>
+      <c r="CS6" s="54"/>
+      <c r="CT6" s="54"/>
+      <c r="CU6" s="54"/>
+      <c r="CV6" s="54"/>
+      <c r="CW6" s="54"/>
+      <c r="CX6" s="54"/>
+      <c r="CY6" s="54"/>
+      <c r="CZ6" s="54"/>
+      <c r="DA6" s="54"/>
+      <c r="DB6" s="54"/>
+      <c r="DC6" s="54"/>
+      <c r="DD6" s="54"/>
+      <c r="DE6" s="54"/>
+      <c r="DF6" s="54"/>
+      <c r="DG6" s="54"/>
+      <c r="DH6" s="54"/>
+      <c r="DI6" s="54"/>
+      <c r="DJ6" s="54"/>
+      <c r="DK6" s="54"/>
+      <c r="DL6" s="54"/>
+      <c r="DM6" s="54"/>
+      <c r="DN6" s="54"/>
+      <c r="DO6" s="54"/>
+      <c r="DP6" s="54"/>
+      <c r="DQ6" s="54"/>
+      <c r="DR6" s="54"/>
+      <c r="DS6" s="54"/>
+      <c r="DT6" s="54"/>
+      <c r="DU6" s="54"/>
+      <c r="DV6" s="54"/>
+      <c r="DW6" s="54"/>
+      <c r="DX6" s="54"/>
+      <c r="DY6" s="54"/>
+      <c r="DZ6" s="54"/>
+      <c r="EA6" s="54"/>
+      <c r="EB6" s="54"/>
+      <c r="EC6" s="54"/>
+      <c r="ED6" s="54"/>
+      <c r="EE6" s="54"/>
+      <c r="EF6" s="54"/>
+      <c r="EG6" s="54"/>
+      <c r="EH6" s="54"/>
+      <c r="EI6" s="54"/>
+      <c r="EJ6" s="54"/>
+      <c r="EK6" s="54"/>
+      <c r="EL6" s="54"/>
+      <c r="EM6" s="54"/>
+      <c r="EN6" s="54"/>
+      <c r="EO6" s="54"/>
+      <c r="EP6" s="54"/>
+      <c r="EQ6" s="54"/>
+      <c r="ER6" s="54"/>
+      <c r="ES6" s="54"/>
+      <c r="ET6" s="54"/>
+      <c r="EU6" s="54"/>
+      <c r="EV6" s="54"/>
+      <c r="EW6" s="54"/>
+      <c r="EX6" s="54"/>
+      <c r="EY6" s="54"/>
+      <c r="EZ6" s="54"/>
+      <c r="FA6" s="54"/>
+      <c r="FB6" s="54"/>
+      <c r="FC6" s="54"/>
+      <c r="FD6" s="54"/>
+      <c r="FE6" s="54"/>
+      <c r="FF6" s="54"/>
+      <c r="FG6" s="54"/>
+      <c r="FH6" s="54"/>
+      <c r="FI6" s="54"/>
+      <c r="FJ6" s="54"/>
+      <c r="FK6" s="54"/>
+      <c r="FL6" s="54"/>
+      <c r="FM6" s="54"/>
+      <c r="FN6" s="54"/>
+      <c r="FO6" s="54"/>
+      <c r="FP6" s="54"/>
+      <c r="FQ6" s="54"/>
+      <c r="FR6" s="54"/>
+      <c r="FS6" s="54"/>
+      <c r="FT6" s="54"/>
+      <c r="FU6" s="54"/>
+      <c r="FV6" s="54"/>
+      <c r="FW6" s="54"/>
+      <c r="FX6" s="54"/>
+      <c r="FY6" s="54"/>
+      <c r="FZ6" s="54"/>
+      <c r="GA6" s="54"/>
+      <c r="GB6" s="54"/>
+      <c r="GC6" s="54"/>
+      <c r="GD6" s="54"/>
+      <c r="GE6" s="54"/>
+      <c r="GF6" s="54"/>
+      <c r="GG6" s="54"/>
+      <c r="GH6" s="54"/>
+      <c r="GI6" s="54"/>
+      <c r="GJ6" s="54"/>
+      <c r="GK6" s="54"/>
+      <c r="GL6" s="54"/>
+      <c r="GM6" s="54"/>
+      <c r="GN6" s="54"/>
+      <c r="GO6" s="54"/>
+      <c r="GP6" s="54"/>
+      <c r="GQ6" s="54"/>
+      <c r="GR6" s="54"/>
+      <c r="GS6" s="54"/>
+      <c r="GT6" s="54"/>
+      <c r="GU6" s="54"/>
+      <c r="GV6" s="54"/>
+      <c r="GW6" s="54"/>
+      <c r="GX6" s="54"/>
+      <c r="GY6" s="54"/>
+      <c r="GZ6" s="54"/>
+      <c r="HA6" s="54"/>
+      <c r="HB6" s="54"/>
+      <c r="HC6" s="54"/>
+      <c r="HD6" s="54"/>
+      <c r="HE6" s="54"/>
+      <c r="HF6" s="54"/>
+      <c r="HG6" s="54"/>
+      <c r="HH6" s="54"/>
+      <c r="HI6" s="54"/>
+      <c r="HJ6" s="54"/>
+      <c r="HK6" s="54"/>
+      <c r="HL6" s="54"/>
+      <c r="HM6" s="54"/>
+      <c r="HN6" s="54"/>
+      <c r="HO6" s="54"/>
+      <c r="HP6" s="54"/>
+      <c r="HQ6" s="54"/>
+      <c r="HR6" s="54"/>
+      <c r="HS6" s="54"/>
+      <c r="HT6" s="54"/>
+      <c r="HU6" s="54"/>
+      <c r="HV6" s="54"/>
+      <c r="HW6" s="54"/>
+      <c r="HX6" s="54"/>
+      <c r="HY6" s="54"/>
+      <c r="HZ6" s="54"/>
+      <c r="IA6" s="54"/>
+      <c r="IB6" s="54"/>
+      <c r="IC6" s="54"/>
+      <c r="ID6" s="54"/>
+      <c r="IE6" s="54"/>
+      <c r="IF6" s="54"/>
+      <c r="IG6" s="54"/>
+      <c r="IH6" s="54"/>
+      <c r="II6" s="54"/>
+      <c r="IJ6" s="54"/>
+      <c r="IK6" s="54"/>
+      <c r="IL6" s="54"/>
+      <c r="IM6" s="54"/>
+      <c r="IN6" s="54"/>
+      <c r="IO6" s="54"/>
+      <c r="IP6" s="54"/>
+      <c r="IQ6" s="54"/>
+      <c r="IR6" s="54"/>
+      <c r="IS6" s="54"/>
+      <c r="IT6" s="54"/>
+      <c r="IU6" s="54"/>
+      <c r="IV6" s="54"/>
+    </row>
+    <row r="7" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="78"/>
+      <c r="B7" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" t="s" s="32">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s" s="32">
-        <v>127</v>
-      </c>
-      <c r="D8" s="16"/>
+    <row r="8" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="78"/>
+      <c r="B8" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="16"/>
+    <row r="9" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="78"/>
+      <c r="B9" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="16"/>
+    <row r="10" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="78"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="16"/>
+    <row r="11" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="66"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="18.95" customHeight="1">
-      <c r="A12" t="s" s="45">
+    <row r="12" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:256" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s" s="35">
-        <v>128</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="16"/>
+    <row r="14" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="71"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="66"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="15.95" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="16"/>
+    <row r="16" spans="1:256" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="99.2" customHeight="1">
-      <c r="A17" t="s" s="13">
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s" s="38">
-        <v>129</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="71.25" customHeight="1">
-      <c r="A18" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="15.95" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="15.95" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="16"/>
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="50"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" ht="15.95" customHeight="1">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="51"/>
       <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" ht="15.95" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="16"/>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="51"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="51"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4153,616 +4891,663 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="76" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="76" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="76" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="76" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="76" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="76" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="54" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="54" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="54" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="45">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="32">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="78"/>
+      <c r="B4" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="56"/>
+      <c r="B7" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="57"/>
+      <c r="B16" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C4" t="s" s="32">
-        <v>146</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="18.95" customHeight="1">
-      <c r="A12" t="s" s="45">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s" s="35">
-        <v>64</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="15.95" customHeight="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="15.95" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="16"/>
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="15.95" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="4"/>
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="15.95" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="16"/>
+    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="110.25" customHeight="1">
-      <c r="A20" t="s" s="13">
+    <row r="20" spans="1:5" ht="368.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" ht="71.25" customHeight="1">
-      <c r="A21" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:C19"/>
+  <mergeCells count="8">
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.73438" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.73438" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.73438" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.73438" style="12" customWidth="1"/>
-    <col min="10" max="10" width="8.73438" style="12" customWidth="1"/>
-    <col min="11" max="256" width="8.73438" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="12" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="20">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="31">
+      <c r="B4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="32">
+      <c r="C4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="32">
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" t="s" s="32">
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="32">
+      <c r="D5" s="15"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="57"/>
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" t="s" s="32">
+      <c r="C6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s" s="32">
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" t="s" s="31">
+      <c r="B8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="32">
+      <c r="C8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="35">
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" t="s" s="32">
+      <c r="C9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s" s="32">
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" t="s" s="32">
+      <c r="C10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s" s="35">
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" ht="18.95" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" t="s" s="32">
+      <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s" s="35">
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" ht="15.95" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" t="s" s="32">
+      <c r="C12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="32">
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" t="s" s="32">
+      <c r="C13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s" s="32">
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" t="s" s="32">
+      <c r="C14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s" s="32">
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" t="s" s="32">
+      <c r="C15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s" s="32">
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="56"/>
+      <c r="B16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" ht="15.95" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" t="s" s="32">
+      <c r="C16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s" s="32">
+      <c r="D16" s="15"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" ht="15.95" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" t="s" s="32">
+      <c r="C17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s" s="32">
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="56"/>
+      <c r="B18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" ht="15.95" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" t="s" s="32">
+      <c r="C18" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s" s="32">
+      <c r="D18" s="15"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="56"/>
+      <c r="B19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" ht="15.95" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" t="s" s="32">
+      <c r="C19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s" s="32">
+      <c r="D19" s="15"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" ht="15.95" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" t="s" s="32">
+      <c r="C20" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s" s="32">
+      <c r="D20" s="15"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" ht="15.95" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" ht="15.95" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" ht="57" customHeight="1">
-      <c r="A23" t="s" s="13">
+      <c r="B23" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" ht="249.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s" s="38">
+      <c r="B24" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" ht="249.75" customHeight="1">
-      <c r="A24" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s" s="38">
-        <v>58</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:A20"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4770,286 +5555,285 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="43" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="43" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="43" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="43" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="43" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="43" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="35" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="35" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="20">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="31">
+      <c r="B4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="32">
+      <c r="C4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="32">
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" t="s" s="32">
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="32">
+      <c r="D5" s="15"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="57"/>
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" t="s" s="32">
+      <c r="C6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s" s="32">
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" t="s" s="31">
+      <c r="B8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="32">
+      <c r="C8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="35">
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" t="s" s="32">
+      <c r="C9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s" s="32">
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" t="s" s="32">
+      <c r="C10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s" s="35">
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="18.95" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" t="s" s="32">
+      <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s" s="35">
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="15.95" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" t="s" s="32">
+      <c r="C12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="32">
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" t="s" s="32">
+      <c r="C13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s" s="32">
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" t="s" s="32">
+      <c r="C14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s" s="32">
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" t="s" s="32">
+      <c r="C15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s" s="32">
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="56"/>
+      <c r="B16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="15.95" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" t="s" s="32">
+      <c r="C16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s" s="32">
+      <c r="D16" s="15"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="15.95" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" t="s" s="32">
+      <c r="C17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s" s="32">
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="56"/>
+      <c r="B18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="15.95" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" t="s" s="32">
+      <c r="C18" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s" s="32">
+      <c r="D18" s="15"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="56"/>
+      <c r="B19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="15.95" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" t="s" s="32">
+      <c r="C19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s" s="32">
+      <c r="D19" s="15"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="15.95" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" t="s" s="32">
+      <c r="C20" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s" s="32">
+      <c r="D20" s="15"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="15.95" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="15.95" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" ht="57" customHeight="1">
-      <c r="A23" t="s" s="13">
+      <c r="B23" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="249.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s" s="38">
-        <v>60</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="249.75" customHeight="1">
-      <c r="A24" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s" s="38">
-        <v>58</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A8:A20"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5057,311 +5841,305 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="44" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="44" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="44" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="44" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="44" customWidth="1"/>
-    <col min="6" max="6" width="8.73438" style="44" customWidth="1"/>
-    <col min="7" max="7" width="8.73438" style="44" customWidth="1"/>
-    <col min="8" max="8" width="8.73438" style="44" customWidth="1"/>
-    <col min="9" max="9" width="8.73438" style="44" customWidth="1"/>
-    <col min="10" max="10" width="8.73438" style="44" customWidth="1"/>
-    <col min="11" max="256" width="8.73438" style="44" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="36" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="36" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="36" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="66"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="C9" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="45">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="32">
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s" s="32">
-        <v>36</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" t="s" s="31">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s" s="35">
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="32">
+      <c r="C11" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" t="s" s="32">
+      <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s" s="32">
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" t="s" s="32">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s" s="35">
+      <c r="C13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" ht="18.95" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" t="s" s="32">
+      <c r="D13" s="38"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="57"/>
+      <c r="B14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C11" t="s" s="35">
-        <v>36</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" ht="15.95" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" t="s" s="32">
+      <c r="C14" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s" s="32">
-        <v>71</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" t="s" s="32">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s" s="47">
-        <v>73</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" t="s" s="32">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s" s="47">
-        <v>75</v>
-      </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" ht="15.95" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="16"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="13">
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s" s="38">
-        <v>62</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" ht="154.5" customHeight="1">
-      <c r="A18" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s" s="38">
-        <v>76</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5369,190 +6147,189 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="50" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="50" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="50" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="50" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="50" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="50" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="40" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="40" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="40" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s" s="14">
-        <v>77</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="20">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="45">
-        <v>21</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="66"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" t="s" s="31">
+    <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="32">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s" s="35">
+      <c r="C7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="32">
-        <v>78</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" t="s" s="32">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s" s="35">
-        <v>34</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" t="s" s="32">
+      <c r="C10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s" s="35">
-        <v>79</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" t="s" s="32">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s" s="32">
-        <v>80</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="15.95" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" t="s" s="32">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s" s="47">
-        <v>81</v>
-      </c>
-      <c r="D12" s="48"/>
+      <c r="C12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="38"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="16"/>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="13">
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s" s="38">
-        <v>77</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="154.5" customHeight="1">
-      <c r="A16" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s" s="38">
-        <v>82</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5560,286 +6337,285 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="51" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="51" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="51" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="51" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="51" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="51" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="41" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="41" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
-        <v>83</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="20">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="31">
+      <c r="B4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="32">
+      <c r="C4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="32">
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" t="s" s="32">
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="32">
-        <v>25</v>
-      </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" t="s" s="32">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s" s="32">
-        <v>85</v>
-      </c>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="57"/>
+      <c r="B6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="16"/>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" t="s" s="31">
+    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="32">
+      <c r="C8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="35">
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" t="s" s="32">
+      <c r="C9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s" s="32">
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" t="s" s="32">
+      <c r="C10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s" s="35">
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="18.95" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" t="s" s="32">
+      <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s" s="35">
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="15.95" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" t="s" s="32">
+      <c r="C12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="32">
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="56"/>
+      <c r="B13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" t="s" s="32">
+      <c r="C13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s" s="32">
+      <c r="D13" s="15"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" t="s" s="32">
+      <c r="C14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s" s="32">
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" t="s" s="32">
+      <c r="C15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s" s="32">
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="56"/>
+      <c r="B16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="15.95" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" t="s" s="32">
+      <c r="C16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s" s="32">
+      <c r="D16" s="15"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="15.95" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" t="s" s="32">
+      <c r="C17" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s" s="32">
+      <c r="D17" s="15"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="56"/>
+      <c r="B18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="15.95" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" t="s" s="32">
+      <c r="C18" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s" s="32">
+      <c r="D18" s="15"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="56"/>
+      <c r="B19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="15.95" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" t="s" s="32">
+      <c r="C19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s" s="32">
+      <c r="D19" s="15"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="15.95" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" t="s" s="32">
+      <c r="C20" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s" s="32">
+      <c r="D20" s="15"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="15.95" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="15.95" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" ht="57" customHeight="1">
-      <c r="A23" t="s" s="13">
+      <c r="B23" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="62"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="249.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s" s="38">
-        <v>86</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="249.75" customHeight="1">
-      <c r="A24" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s" s="38">
-        <v>58</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A8:A20"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5847,209 +6623,208 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="52" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="52" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="52" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="52" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="52" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="52" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="42" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="42" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="42" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
-        <v>87</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="20">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="31">
+      <c r="B4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="32">
+      <c r="C4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="32">
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" t="s" s="32">
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="32">
-        <v>25</v>
-      </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" t="s" s="32">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s" s="32">
-        <v>89</v>
-      </c>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="57"/>
+      <c r="B6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="16"/>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" t="s" s="31">
+    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="32">
+      <c r="C8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="35">
+      <c r="D8" s="15"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" t="s" s="32">
+      <c r="C9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s" s="32">
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="56"/>
+      <c r="B10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" t="s" s="32">
+      <c r="C10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s" s="35">
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="18.95" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" t="s" s="32">
+      <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s" s="35">
+      <c r="D11" s="15"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="15.95" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" t="s" s="32">
+      <c r="C12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="32">
-        <v>38</v>
-      </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="15.95" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" t="s" s="32">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s" s="32">
-        <v>90</v>
-      </c>
-      <c r="D13" s="16"/>
+    <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="67"/>
+      <c r="B13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" ht="15.95" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="16"/>
+    <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" ht="15.95" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="16"/>
+    <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" ht="57" customHeight="1">
-      <c r="A16" t="s" s="13">
+    <row r="16" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s" s="38">
-        <v>91</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="133" customHeight="1">
-      <c r="A17" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s" s="38">
-        <v>92</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6057,160 +6832,161 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="54" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="54" customWidth="1"/>
-    <col min="3" max="3" width="64.5781" style="54" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="54" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="54" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="54" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="43" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="43" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="43" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="13">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
-        <v>93</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="20">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s" s="21">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>21</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" t="s" s="31">
+    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s" s="32">
+      <c r="C6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s" s="35">
+      <c r="D6" s="15"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="56"/>
+      <c r="B7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" t="s" s="32">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s" s="32">
-        <v>94</v>
-      </c>
-      <c r="D7" s="16"/>
+      <c r="C7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" t="s" s="32">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s" s="35">
-        <v>95</v>
-      </c>
-      <c r="D8" s="16"/>
+    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" t="s" s="32">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s" s="32">
-        <v>97</v>
-      </c>
-      <c r="D9" s="16"/>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="57"/>
+      <c r="B9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="16"/>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="16"/>
+    <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="13">
+    <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s" s="38">
-        <v>98</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="99.75" customHeight="1">
-      <c r="A13" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s" s="38">
-        <v>99</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6218,117 +6994,117 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="55" customWidth="1"/>
-    <col min="2" max="2" width="27.7344" style="55" customWidth="1"/>
-    <col min="3" max="3" width="53.5781" style="55" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="55" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="55" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="55" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="44" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="44" customWidth="1"/>
+    <col min="3" max="3" width="53.625" style="44" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" t="s" s="56">
-        <v>100</v>
-      </c>
-      <c r="B1" t="s" s="38">
-        <v>101</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="16"/>
+    <row r="1" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="56">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="14">
-        <v>102</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="56">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="32">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s" s="32">
-        <v>104</v>
-      </c>
-      <c r="D4" s="16"/>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" t="s" s="13">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s" s="58">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="32">
-        <v>105</v>
-      </c>
-      <c r="D6" s="16"/>
+      <c r="C6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="16"/>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="69"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="16"/>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" ht="42" customHeight="1">
-      <c r="A9" t="s" s="13">
+    <row r="9" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s" s="38">
-        <v>106</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="58.5" customHeight="1">
-      <c r="A10" t="s" s="13">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s" s="38">
-        <v>107</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
     </row>
   </sheetData>
@@ -6341,8 +7117,9 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B9:C9"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/doc/App接口定义.xlsx
+++ b/doc/App接口定义.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" tabRatio="788" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" tabRatio="788" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="获取推荐课程列表" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,15 @@
     <sheet name="添加收藏音频" sheetId="20" r:id="rId23"/>
     <sheet name="获取收藏目录音频列表" sheetId="23" r:id="rId24"/>
     <sheet name="删除收藏课程" sheetId="21" r:id="rId25"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId26"/>
+    <sheet name="添加到音响播放" sheetId="27" r:id="rId26"/>
+    <sheet name="音响播放控制" sheetId="28" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="238">
   <si>
     <t>接口地址</t>
   </si>
@@ -940,9 +941,6 @@
     <t>{“errCode”:0,”userToken”:xxxxxxxxxx}</t>
   </si>
   <si>
-    <t>{base_url}/user/addDevice</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -979,9 +977,6 @@
 }</t>
   </si>
   <si>
-    <t>{base_url}/user/getMyDevices</t>
-  </si>
-  <si>
     <t>系统操作代码 0-表示验证成功,1-业务失败,-1-系统异常</t>
   </si>
   <si>
@@ -1024,9 +1019,6 @@
   </si>
   <si>
     <t>音源：AUX/USB/WIFI</t>
-  </si>
-  <si>
-    <t>{base_url}/user/getMyDevices?userToken=</t>
   </si>
   <si>
     <r>
@@ -1150,9 +1142,6 @@
     </r>
   </si>
   <si>
-    <t>{base_url}/user/addPlayTask</t>
-  </si>
-  <si>
     <t>deviceId</t>
   </si>
   <si>
@@ -1202,9 +1191,6 @@
     <t>课程音频文件ID</t>
   </si>
   <si>
-    <t>{base_url}/user/getPlayTaskList</t>
-  </si>
-  <si>
     <t>定时任务数</t>
   </si>
   <si>
@@ -1257,9 +1243,6 @@
   </si>
   <si>
     <t>播放地址</t>
-  </si>
-  <si>
-    <t>{base_url}/user/getPlayTaskList?userToken=&amp;deviceId=</t>
   </si>
   <si>
     <t>{
@@ -1437,9 +1420,6 @@
     </r>
   </si>
   <si>
-    <t>{base_url}/user/getCollectDirList?userToken=</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1554,14 +1534,6 @@
   </si>
   <si>
     <t>dirId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{base_url}/user/getCollectDirList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{base_url}/user/getCollectAudioList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1672,44 +1644,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{base_url}/user/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>getCollectAudioList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>?userToken=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xx&amp;dirId=xxx</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{base_url}/user/delCollectDir</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>music</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1718,19 +1652,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{base_url}/user/addCollectAudio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{base_url}/user/delCollectAudio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>music</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{base_url}/user/addCollectDir</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1939,14 +1861,6 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{base_url}/user/delTaskAudio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{base_url}/user/delTask</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2302,7 +2216,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{base_url}/user/delDevice</t>
+    <t>dirId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{base_url}/app/user/addPlayList</t>
+  </si>
+  <si>
+    <t>要播放的记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{base_url}/app/user/addDevice</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/getMyDevices</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/getMyDevices?userToken=</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/delDevice</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/getPlayTaskList</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/getPlayTaskList?userToken=&amp;deviceId=</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/addPlayTask</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/delTask</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/delTaskAudio</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/addCollectDir</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/delCollectDir</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/getCollectDirList</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/getCollectDirList?userToken=</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/addCollectAudio</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/getCollectAudioList</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/getCollectAudioList?userToken=xx&amp;dirId=xxx</t>
+  </si>
+  <si>
+    <t>{base_url}/app/user/delCollectAudio</t>
+  </si>
+  <si>
+    <t>音响ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{base_url}/app/user/playContol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{base_url}/app/user/playContol?userToken=xxxxxxxx&amp;deviceId=1111&amp;action=stop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放控制,pause--暂停 resume--恢复  stop--停止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ errCode:0
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2740,7 +2738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2817,6 +2815,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2835,16 +2853,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,14 +2886,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2892,9 +2907,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2903,23 +2923,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4123,10 +4132,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -4152,9 +4161,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -4164,7 +4173,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -4182,7 +4191,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
@@ -4198,7 +4207,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
@@ -4214,9 +4223,9 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="11"/>
@@ -4226,7 +4235,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -4244,7 +4253,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
@@ -4260,7 +4269,7 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
@@ -4276,7 +4285,7 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
@@ -4292,7 +4301,7 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
@@ -4308,7 +4317,7 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
@@ -4324,7 +4333,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
@@ -4340,7 +4349,7 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
@@ -4356,7 +4365,7 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
@@ -4372,7 +4381,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
@@ -4388,7 +4397,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
@@ -4404,7 +4413,7 @@
       <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
@@ -4420,7 +4429,7 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
@@ -4436,7 +4445,7 @@
       <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
@@ -4464,9 +4473,9 @@
       <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="11"/>
@@ -4479,10 +4488,10 @@
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="11"/>
@@ -4495,10 +4504,10 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="19"/>
@@ -4509,14 +4518,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:A21"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4545,10 +4554,10 @@
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="71"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -4556,17 +4565,17 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
@@ -4584,14 +4593,14 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -4604,7 +4613,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
@@ -4615,7 +4624,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
@@ -4626,7 +4635,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
@@ -4637,7 +4646,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
@@ -4655,9 +4664,9 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
@@ -4665,8 +4674,8 @@
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="61"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
@@ -4674,23 +4683,23 @@
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4719,10 +4728,10 @@
       <c r="A1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="71"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -4730,17 +4739,17 @@
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
@@ -4758,14 +4767,14 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="77" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -4778,7 +4787,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="4"/>
@@ -4795,10 +4804,10 @@
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
@@ -4806,10 +4815,10 @@
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
@@ -4850,10 +4859,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -4861,22 +4870,22 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -4889,7 +4898,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="15" t="s">
         <v>109</v>
       </c>
@@ -4900,14 +4909,14 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -4920,7 +4929,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -4931,16 +4940,16 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
@@ -4948,10 +4957,10 @@
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
@@ -4959,10 +4968,10 @@
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
@@ -5005,10 +5014,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -5016,22 +5025,22 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -5044,92 +5053,92 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="4"/>
@@ -5143,9 +5152,9 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
@@ -5153,10 +5162,10 @@
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="61"/>
+      <c r="B17" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="60"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
@@ -5164,36 +5173,36 @@
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="40"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="61"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
@@ -5242,10 +5251,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -5253,17 +5262,17 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
@@ -5281,71 +5290,71 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="83" t="s">
-        <v>214</v>
+      <c r="A9" s="88"/>
+      <c r="B9" s="57" t="s">
+        <v>200</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
@@ -5356,56 +5365,56 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
@@ -5414,10 +5423,10 @@
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="68"/>
+      <c r="B17" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="75"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
@@ -5425,10 +5434,10 @@
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="68"/>
+      <c r="B18" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="75"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
     </row>
@@ -5513,10 +5522,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -5529,10 +5538,10 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="11"/>
@@ -5542,9 +5551,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -5554,7 +5563,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -5572,12 +5581,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="83" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>217</v>
+      <c r="A5" s="65"/>
+      <c r="B5" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>203</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -5588,9 +5597,9 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="11"/>
@@ -5600,14 +5609,14 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -5618,7 +5627,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="4"/>
@@ -5630,7 +5639,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="4"/>
@@ -5654,9 +5663,9 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="11"/>
@@ -5670,9 +5679,9 @@
         <v>40</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="61"/>
+        <v>211</v>
+      </c>
+      <c r="C12" s="60"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="11"/>
@@ -5685,10 +5694,10 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="11"/>
@@ -5699,8 +5708,8 @@
     </row>
     <row r="14" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="11"/>
@@ -5711,8 +5720,8 @@
     </row>
     <row r="15" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="11"/>
@@ -5723,8 +5732,8 @@
     </row>
     <row r="16" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -5735,8 +5744,8 @@
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="19"/>
@@ -5747,6 +5756,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -5754,12 +5769,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5790,22 +5799,22 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -5818,25 +5827,25 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
-      <c r="B4" s="83" t="s">
-        <v>216</v>
+      <c r="A4" s="72"/>
+      <c r="B4" s="57" t="s">
+        <v>202</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -5849,131 +5858,131 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="58"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="70"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
@@ -5986,9 +5995,9 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
@@ -5996,10 +6005,10 @@
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="61"/>
+      <c r="B21" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="60"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
     </row>
@@ -6007,10 +6016,10 @@
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="61"/>
+      <c r="B22" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="60"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
@@ -6054,10 +6063,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -6070,10 +6079,10 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="11"/>
@@ -6083,9 +6092,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -6095,7 +6104,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -6113,12 +6122,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -6129,12 +6138,12 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -6145,12 +6154,12 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -6161,12 +6170,12 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -6177,12 +6186,12 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -6193,12 +6202,12 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -6209,7 +6218,7 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="4"/>
@@ -6221,9 +6230,9 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="11"/>
@@ -6233,14 +6242,14 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -6251,7 +6260,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="4"/>
@@ -6263,7 +6272,7 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="4"/>
@@ -6287,9 +6296,9 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
@@ -6303,9 +6312,9 @@
         <v>40</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="61"/>
+        <v>209</v>
+      </c>
+      <c r="C18" s="60"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="11"/>
@@ -6318,10 +6327,10 @@
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="61"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="11"/>
@@ -6332,8 +6341,8 @@
     </row>
     <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="40"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="61"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="11"/>
@@ -6344,8 +6353,8 @@
     </row>
     <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="11"/>
@@ -6356,8 +6365,8 @@
     </row>
     <row r="22" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="11"/>
@@ -6368,8 +6377,8 @@
     </row>
     <row r="23" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="19"/>
@@ -6407,7 +6416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
@@ -6423,10 +6432,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -6439,10 +6448,10 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="11"/>
@@ -6452,9 +6461,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -6464,7 +6473,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -6482,12 +6491,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>217</v>
+      <c r="A5" s="65"/>
+      <c r="B5" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>203</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -6498,12 +6507,12 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>215</v>
+      <c r="A6" s="88"/>
+      <c r="B6" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -6514,9 +6523,9 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="11"/>
@@ -6526,14 +6535,14 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -6544,7 +6553,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="4"/>
@@ -6556,7 +6565,7 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="4"/>
@@ -6580,9 +6589,9 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="11"/>
@@ -6596,9 +6605,9 @@
         <v>40</v>
       </c>
       <c r="B13" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="61"/>
+        <v>206</v>
+      </c>
+      <c r="C13" s="60"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="11"/>
@@ -6611,10 +6620,10 @@
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="11"/>
@@ -6625,8 +6634,8 @@
     </row>
     <row r="15" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="11"/>
@@ -6637,8 +6646,8 @@
     </row>
     <row r="16" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -6649,8 +6658,8 @@
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
@@ -6661,8 +6670,8 @@
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="19"/>
@@ -6673,6 +6682,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -6680,12 +6695,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6716,10 +6725,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -6732,10 +6741,10 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="11"/>
@@ -6745,9 +6754,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -6757,7 +6766,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -6775,12 +6784,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
-      <c r="B5" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>217</v>
+      <c r="A5" s="65"/>
+      <c r="B5" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>203</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -6791,12 +6800,12 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>215</v>
+      <c r="A6" s="65"/>
+      <c r="B6" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>201</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -6807,12 +6816,12 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="83" t="s">
-        <v>210</v>
+      <c r="A7" s="65"/>
+      <c r="B7" s="57" t="s">
+        <v>197</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -6823,12 +6832,12 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="83" t="s">
-        <v>221</v>
+      <c r="A8" s="88"/>
+      <c r="B8" s="57" t="s">
+        <v>207</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -6839,9 +6848,9 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="11"/>
@@ -6851,14 +6860,14 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -6869,7 +6878,7 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="4"/>
@@ -6881,7 +6890,7 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="4"/>
@@ -6905,9 +6914,9 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="11"/>
@@ -6921,9 +6930,9 @@
         <v>40</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="61"/>
+        <v>210</v>
+      </c>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="11"/>
@@ -6936,10 +6945,10 @@
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -6950,8 +6959,8 @@
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
@@ -6962,8 +6971,8 @@
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="11"/>
@@ -6974,8 +6983,8 @@
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="11"/>
@@ -6986,8 +6995,8 @@
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="61"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="19"/>
@@ -6998,6 +7007,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -7005,12 +7020,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7039,10 +7048,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -7058,14 +7067,14 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -7078,7 +7087,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
@@ -7089,7 +7098,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
@@ -7100,14 +7109,14 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -7120,7 +7129,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
@@ -7131,7 +7140,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
@@ -7142,7 +7151,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
@@ -7153,7 +7162,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
@@ -7164,7 +7173,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7175,7 +7184,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
@@ -7186,7 +7195,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
@@ -7197,7 +7206,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
@@ -7208,7 +7217,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
@@ -7219,7 +7228,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
@@ -7230,7 +7239,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
@@ -7241,7 +7250,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
@@ -7252,7 +7261,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
@@ -7270,9 +7279,9 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
@@ -7280,10 +7289,10 @@
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
@@ -7291,23 +7300,23 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:A21"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7338,10 +7347,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -7354,10 +7363,10 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="11"/>
@@ -7367,9 +7376,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -7379,7 +7388,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -7397,12 +7406,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -7413,7 +7422,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="4"/>
@@ -7425,7 +7434,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="4"/>
@@ -7437,9 +7446,9 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="11"/>
@@ -7449,14 +7458,14 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -7467,7 +7476,7 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="4"/>
@@ -7479,7 +7488,7 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="4"/>
@@ -7503,9 +7512,9 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="11"/>
@@ -7518,10 +7527,10 @@
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="61"/>
+      <c r="B14" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="60"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="11"/>
@@ -7534,10 +7543,10 @@
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="11"/>
@@ -7548,8 +7557,8 @@
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -7560,8 +7569,8 @@
     </row>
     <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
@@ -7572,8 +7581,8 @@
     </row>
     <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="11"/>
@@ -7584,8 +7593,8 @@
     </row>
     <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="19"/>
@@ -7639,10 +7648,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -7655,10 +7664,10 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="11"/>
@@ -7668,9 +7677,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -7680,7 +7689,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -7698,12 +7707,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -7714,9 +7723,9 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="11"/>
@@ -7726,14 +7735,14 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -7744,7 +7753,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="4"/>
@@ -7756,7 +7765,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="4"/>
@@ -7780,9 +7789,9 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="11"/>
@@ -7795,10 +7804,10 @@
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="61"/>
+      <c r="B12" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="60"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="11"/>
@@ -7811,10 +7820,10 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="11"/>
@@ -7825,8 +7834,8 @@
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="11"/>
@@ -7837,8 +7846,8 @@
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="41"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="11"/>
@@ -7849,8 +7858,8 @@
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="41"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -7861,8 +7870,8 @@
     </row>
     <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="19"/>
@@ -7916,10 +7925,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -7927,17 +7936,17 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
@@ -7955,65 +7964,65 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -8022,10 +8031,10 @@
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="68"/>
+      <c r="B11" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="75"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
@@ -8033,10 +8042,10 @@
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" s="68"/>
+      <c r="B12" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="75"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
@@ -8121,10 +8130,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -8137,10 +8146,10 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="11"/>
@@ -8150,9 +8159,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -8162,7 +8171,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -8180,12 +8189,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="83" t="s">
-        <v>194</v>
+      <c r="A5" s="83"/>
+      <c r="B5" s="57" t="s">
+        <v>185</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -8196,12 +8205,12 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="83" t="s">
-        <v>206</v>
+      <c r="A6" s="79"/>
+      <c r="B6" s="57" t="s">
+        <v>195</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -8212,12 +8221,12 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -8228,12 +8237,12 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="83" t="s">
-        <v>207</v>
+      <c r="A8" s="72"/>
+      <c r="B8" s="57" t="s">
+        <v>196</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
@@ -8244,9 +8253,9 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="11"/>
@@ -8256,14 +8265,14 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -8274,7 +8283,7 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="4"/>
@@ -8286,7 +8295,7 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="4"/>
@@ -8310,9 +8319,9 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="11"/>
@@ -8326,9 +8335,9 @@
         <v>40</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="61"/>
+        <v>208</v>
+      </c>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="11"/>
@@ -8341,10 +8350,10 @@
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -8355,8 +8364,8 @@
     </row>
     <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
@@ -8367,8 +8376,8 @@
     </row>
     <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="11"/>
@@ -8379,8 +8388,8 @@
     </row>
     <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="11"/>
@@ -8391,8 +8400,8 @@
     </row>
     <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="61"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="19"/>
@@ -8431,7 +8440,7 @@
   <dimension ref="A1:IV20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8446,10 +8455,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -8457,22 +8466,22 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="93" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -8485,87 +8494,87 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="86"/>
-      <c r="B5" s="15" t="s">
-        <v>194</v>
+      <c r="A5" s="94"/>
+      <c r="B5" s="97" t="s">
+        <v>212</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" s="52" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="87" t="s">
-        <v>202</v>
+      <c r="C9" s="58" t="s">
+        <v>193</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>201</v>
+      <c r="A10" s="88"/>
+      <c r="B10" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>192</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>200</v>
+      <c r="A11" s="74"/>
+      <c r="B11" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>191</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>199</v>
+      <c r="A12" s="75"/>
+      <c r="B12" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>190</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -8574,10 +8583,10 @@
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="68"/>
+      <c r="B13" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="75"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
@@ -8585,10 +8594,10 @@
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="68"/>
+      <c r="B14" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="75"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
@@ -8674,10 +8683,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="91" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -8690,10 +8699,10 @@
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="63"/>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="11"/>
@@ -8703,9 +8712,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -8715,11 +8724,11 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="83" t="s">
-        <v>190</v>
+      <c r="B4" s="57" t="s">
+        <v>183</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>112</v>
@@ -8733,12 +8742,12 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="83" t="s">
-        <v>191</v>
+      <c r="A5" s="83"/>
+      <c r="B5" s="57" t="s">
+        <v>184</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -8749,12 +8758,12 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
-      <c r="B6" s="83" t="s">
-        <v>210</v>
+      <c r="A6" s="79"/>
+      <c r="B6" s="57" t="s">
+        <v>197</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -8765,12 +8774,12 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="83" t="s">
-        <v>221</v>
+      <c r="A7" s="72"/>
+      <c r="B7" s="57" t="s">
+        <v>207</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
@@ -8781,9 +8790,9 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="11"/>
@@ -8793,14 +8802,14 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
@@ -8811,7 +8820,7 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="4"/>
@@ -8823,7 +8832,7 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="4"/>
@@ -8847,9 +8856,9 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="11"/>
@@ -8862,10 +8871,10 @@
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="61"/>
+      <c r="B14" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="60"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="11"/>
@@ -8878,10 +8887,10 @@
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="11"/>
@@ -8892,8 +8901,8 @@
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -8904,8 +8913,8 @@
     </row>
     <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="41"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
@@ -8916,8 +8925,8 @@
     </row>
     <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="41"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="11"/>
@@ -8928,8 +8937,8 @@
     </row>
     <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="41"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="19"/>
@@ -8965,89 +8974,616 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="8.75" style="52" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="52" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="52" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="52" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="83"/>
+      <c r="B5" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="79"/>
+      <c r="B6" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="79"/>
+      <c r="B7" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="72"/>
+      <c r="B8" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="5"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="83"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="72"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="53"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="40"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="52" customWidth="1"/>
+    <col min="2" max="2" width="27.75" style="52" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="52" customWidth="1"/>
+    <col min="4" max="256" width="8.75" style="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="83"/>
+      <c r="B5" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="79"/>
+      <c r="B6" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="52" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="83"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="53"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" s="52" customFormat="1" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" s="52" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="40"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" s="52" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -9072,10 +9608,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -9091,14 +9627,14 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -9111,7 +9647,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
@@ -9122,7 +9658,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
@@ -9133,14 +9669,14 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -9153,7 +9689,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
@@ -9164,7 +9700,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
@@ -9175,7 +9711,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
@@ -9186,7 +9722,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
@@ -9197,7 +9733,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
@@ -9208,7 +9744,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
@@ -9219,7 +9755,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
@@ -9230,7 +9766,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
@@ -9241,7 +9777,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
@@ -9252,7 +9788,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
@@ -9263,7 +9799,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
@@ -9274,7 +9810,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
@@ -9285,7 +9821,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
@@ -9303,9 +9839,9 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
@@ -9313,10 +9849,10 @@
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
@@ -9324,23 +9860,23 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9371,10 +9907,10 @@
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="63"/>
+      <c r="B1" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -9400,9 +9936,9 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="11"/>
@@ -9412,7 +9948,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -9430,7 +9966,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="4"/>
@@ -9442,9 +9978,9 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="11"/>
@@ -9454,7 +9990,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -9472,7 +10008,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
@@ -9488,7 +10024,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="15" t="s">
         <v>54</v>
       </c>
@@ -9504,7 +10040,7 @@
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
@@ -9520,7 +10056,7 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="15" t="s">
         <v>57</v>
       </c>
@@ -9536,7 +10072,7 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="15" t="s">
         <v>58</v>
       </c>
@@ -9552,7 +10088,7 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
@@ -9568,7 +10104,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="15" t="s">
         <v>62</v>
       </c>
@@ -9596,9 +10132,9 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="11"/>
@@ -9611,10 +10147,10 @@
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="11"/>
@@ -9627,10 +10163,10 @@
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="19"/>
@@ -9677,10 +10213,10 @@
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -9696,14 +10232,14 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="18"/>
@@ -9712,21 +10248,21 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -9739,7 +10275,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
@@ -9750,7 +10286,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
@@ -9761,7 +10297,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
@@ -9772,7 +10308,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="15" t="s">
         <v>58</v>
       </c>
@@ -9783,7 +10319,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="15" t="s">
         <v>62</v>
       </c>
@@ -9801,9 +10337,9 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
@@ -9811,10 +10347,10 @@
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
     </row>
@@ -9822,23 +10358,23 @@
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9867,10 +10403,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -9886,14 +10422,14 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -9906,7 +10442,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
@@ -9917,7 +10453,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
@@ -9928,14 +10464,14 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -9948,7 +10484,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
@@ -9959,7 +10495,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
@@ -9970,7 +10506,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
@@ -9981,7 +10517,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
@@ -9992,7 +10528,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
@@ -10003,7 +10539,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="15" t="s">
         <v>24</v>
       </c>
@@ -10014,7 +10550,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
@@ -10025,7 +10561,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="15" t="s">
         <v>28</v>
       </c>
@@ -10036,7 +10572,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
@@ -10047,7 +10583,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
@@ -10058,7 +10594,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
@@ -10069,7 +10605,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
@@ -10080,7 +10616,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
@@ -10098,9 +10634,9 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
@@ -10108,10 +10644,10 @@
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
@@ -10119,23 +10655,23 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A8:A21"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10164,10 +10700,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -10183,14 +10719,14 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -10203,7 +10739,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
@@ -10214,7 +10750,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
@@ -10225,7 +10761,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="70"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="15" t="s">
         <v>75</v>
       </c>
@@ -10236,14 +10772,14 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -10256,7 +10792,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
@@ -10267,7 +10803,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -10278,7 +10814,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
@@ -10289,7 +10825,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
@@ -10300,7 +10836,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
@@ -10311,7 +10847,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="15" t="s">
         <v>24</v>
       </c>
@@ -10322,7 +10858,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="15" t="s">
         <v>26</v>
       </c>
@@ -10333,7 +10869,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
@@ -10344,7 +10880,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="15" t="s">
         <v>30</v>
       </c>
@@ -10355,7 +10891,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="68"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="15" t="s">
         <v>32</v>
       </c>
@@ -10366,7 +10902,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="15" t="s">
         <v>34</v>
       </c>
@@ -10377,7 +10913,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="15" t="s">
         <v>36</v>
       </c>
@@ -10388,7 +10924,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="15" t="s">
         <v>38</v>
       </c>
@@ -10399,9 +10935,9 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
     </row>
@@ -10409,10 +10945,10 @@
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="61"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
@@ -10420,15 +10956,16 @@
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B24:C24"/>
@@ -10436,7 +10973,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10465,10 +11001,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
@@ -10484,9 +11020,9 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
@@ -10500,14 +11036,14 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="64" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -10520,7 +11056,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
@@ -10531,7 +11067,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
@@ -10542,7 +11078,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="15" t="s">
         <v>81</v>
       </c>
@@ -10560,9 +11096,9 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
@@ -10570,10 +11106,10 @@
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
@@ -10581,22 +11117,22 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10625,17 +11161,17 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
     </row>
@@ -10649,14 +11185,14 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="71" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -10669,7 +11205,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="72"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
@@ -10680,7 +11216,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="72"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
@@ -10691,7 +11227,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
@@ -10702,7 +11238,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -10720,9 +11256,9 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
@@ -10730,8 +11266,8 @@
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
     </row>
@@ -10739,10 +11275,10 @@
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
     </row>
